--- a/data/trans_dic/P26-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P26-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>19,36; 24,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>23,13; 29,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>19,17; 25,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,66; 14,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>30,27; 35,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>31,53; 37,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>18,43; 24,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>9,24; 13,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>26,12; 29,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>28,85; 33,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>19,59; 23,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,57; 12,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>30,98; 35,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>34,86; 39,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,73; 29,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>10,78; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>40,36; 45,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>41,96; 46,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>28,52; 33,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,39; 16,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,24; 39,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,74; 42,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>27,53; 30,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>12,59; 18,38</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>21,96; 29,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>25,35; 34,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,61; 24,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>7,63; 13,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>24,35; 33,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>24,69; 34,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>18,5; 26,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,8; 13,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>24,41; 30,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>25,83; 32,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,81; 24,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,83; 12,54</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>26,83; 30,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,09; 34,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,76; 26,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,59; 18,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,5; 38,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,92; 40,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,24; 28,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,63; 14,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>31,74; 34,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>34,75; 37,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,93; 27,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>11,78; 15,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 14,87</t>
+          <t>8,95; 15,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,28</t>
+          <t>9,4; 13,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,88</t>
+          <t>9,81; 13,3</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,91</t>
+          <t>11,42; 46,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 16,56</t>
+          <t>9,83; 16,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 18,38</t>
+          <t>12,39; 36,33</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,36</t>
+          <t>7,89; 14,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,56</t>
+          <t>8,98; 13,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,54</t>
+          <t>9,15; 13,17</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>15,61%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 18,38</t>
+          <t>11,23; 38,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,56</t>
+          <t>10,27; 14,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,35</t>
+          <t>11,92; 27,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,87</t>
+          <t>19,55; 25,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,13; 29,18</t>
+          <t>23,24; 29,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 25,58</t>
+          <t>19,2; 25,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,95; 15,36</t>
+          <t>8,57; 14,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,27; 35,55</t>
+          <t>30,01; 35,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,53; 37,2</t>
+          <t>31,6; 37,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,39</t>
+          <t>18,63; 24,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,56</t>
+          <t>9,47; 13,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 29,94</t>
+          <t>26,11; 29,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 33,05</t>
+          <t>28,69; 32,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,86</t>
+          <t>19,41; 23,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,81; 13,3</t>
+          <t>9,8; 13,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,98; 35,98</t>
+          <t>30,91; 35,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,86; 39,29</t>
+          <t>34,81; 39,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,73; 29,65</t>
+          <t>25,62; 29,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 46,14</t>
+          <t>11,39; 43,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,36; 45,39</t>
+          <t>40,25; 45,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,96; 46,87</t>
+          <t>42,1; 46,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,52; 33,0</t>
+          <t>28,44; 32,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,17</t>
+          <t>10,05; 16,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,24; 39,71</t>
+          <t>36,05; 39,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,74; 42,1</t>
+          <t>38,93; 42,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 30,49</t>
+          <t>27,59; 30,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 36,33</t>
+          <t>12,41; 34,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 29,83</t>
+          <t>21,95; 30,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 34,41</t>
+          <t>25,06; 34,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,86</t>
+          <t>16,41; 24,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,07</t>
+          <t>7,76; 13,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,55</t>
+          <t>24,78; 33,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 34,19</t>
+          <t>24,2; 33,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 26,41</t>
+          <t>18,79; 26,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,85</t>
+          <t>8,99; 13,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,41; 30,34</t>
+          <t>24,31; 30,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,83; 32,41</t>
+          <t>26,1; 32,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 24,19</t>
+          <t>18,67; 24,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,17</t>
+          <t>9,13; 13,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,27</t>
+          <t>26,86; 30,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,09; 34,5</t>
+          <t>31,36; 34,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,76; 26,94</t>
+          <t>23,71; 26,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 38,43</t>
+          <t>11,2; 38,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,5; 38,85</t>
+          <t>35,32; 38,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,92; 40,54</t>
+          <t>37,0; 40,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,28</t>
+          <t>25,23; 28,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,42</t>
+          <t>10,44; 14,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,74; 34,04</t>
+          <t>31,63; 34,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 37,19</t>
+          <t>34,78; 37,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 27,1</t>
+          <t>24,95; 27,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 27,19</t>
+          <t>11,97; 27,23</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tienen algún familiar que fuma habitualmente en casa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>205847</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>241927</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>151364</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50993</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>371603</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>419878</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>186165</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>69797</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>577450</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>661805</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>337529</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>120790</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>182449; 233714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>215317; 272093</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>130115; 174534</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37385; 65269</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>340328; 404366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>385878; 457103</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>163642; 211362</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58531; 84269</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>539692; 618072</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>615979; 703952</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>302093; 365128</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>103308; 141199</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>534796</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>702904</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>541537</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>470434</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>648094</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>757215</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>577035</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>292136</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1182890</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1460120</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1118572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>762570</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>495354; 575660</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>660171; 743567</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>503376; 582215</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>241583; 925979</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>610960; 690372</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>717906; 798965</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>536777; 618934</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>212686; 343826</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1125008; 1240125</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1402481; 1520213</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1062722; 1180415</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>525911; 1448283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>133242</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>133223</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98893</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64256</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>127132</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>125362</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70237</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>260374</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>258585</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>211961</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>134493</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113326; 156305</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>112875; 154922</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80667; 121180</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47051; 83537</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>109107; 146844</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>104640; 145599</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95128; 133059</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55987; 85967</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>232522; 287535</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>230407; 289621</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>186283; 241839</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>112321; 162033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1584</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>873885</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1078054</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>791794</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>585683</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1146829</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1302456</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>876267</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>432170</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2020714</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2380510</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1668061</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1017853</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>819766; 919521</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1026583; 1134798</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>743215; 840011</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>354371; 1227196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1092109; 1200621</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1242782; 1363079</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>825569; 926473</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>350612; 486463</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1943595; 2094258</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2306889; 2469336</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1598283; 1739216</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>780402; 1775609</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>